--- a/Tao Te Ching.xlsx
+++ b/Tao Te Ching.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\ENIkS\Tao-Te-Ching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3FC7AF-1EBE-4052-B301-7FAF147DFB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBAD7DE-1040-4BA0-9E58-B718FE1A2D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{4ECF5ACE-9B46-4D1B-BBE6-B04392F08585}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Translated by Aleister Crowley</t>
   </si>
@@ -75,6 +75,141 @@
     <t>To reward merit is to stir up emulation; to prize rarities is to encourage robbery; to display desirable things is to excite the disorder of covetousness.
 Therefore, the sage governeth men by keeping their minds and their bodies at rest, contenting the one by emptiness, the other by fullness. He satisfieth their desires, thus fulfilling their wills, and making them frictionless; and he maketh them strong in body, to a similar end.
 He delivereth them from the restlessness of knowledge and the cravings of discontent. As to those who have knowledge already, he teacheth them the way of non-action. This being assured, there is no disorder in the world.</t>
+  </si>
+  <si>
+    <t>THE SPRING WITHOUT SOURCE</t>
+  </si>
+  <si>
+    <t>The Tao resembleth the emptiness of Space; to employ it, we must avoid creating ganglia. Oh Tao, how vast art Thou, the Abyss of Abysses, thou Holy and Secret Father of all Fatherhoods of Things!
+Let us make our sharpness blunt; let us loosen our complexes; let us tone down our brightness to the general obscurity. Oh Tao, how still art thou, how pure, continuous One beyond Heaven!
+This Tao hath no Father; it is beyond all other conceptions, higher than the highest.</t>
+  </si>
+  <si>
+    <t>THE FORMULA OF THE VACUUM</t>
+  </si>
+  <si>
+    <t>Heaven and earth proceed without motive, but casually in their order of nature, dealing with all things carelessly, like used talismans. So also the sages deal with their people, not exercising benevolence, but allowing the nature of all to move without friction.
+The Space between heaven and earth is their breathing apparatus: Exhalation is not exhaustion, but the complement of Inhalation, and this equally of that. Speech exhausteth; guard thyself, therefore, maintaining the perfect freedom of thy nature.</t>
+  </si>
+  <si>
+    <t>THE PERFECTING OF FORM</t>
+  </si>
+  <si>
+    <t>The Teh is the immortal enemy of the Tao, its feminine aspect. Heaven and Earth issued from her Gate; this Gate is the Root of their World-Sycamore. Its operation is of pure Joy and Love, and faileth never.</t>
+  </si>
+  <si>
+    <t>THE CONCEALMENT OF THE LIGHT</t>
+  </si>
+  <si>
+    <t>Heaven and Earth are mighty in continuance, because their work is delivered from the lust of result.
+Thus also the sage, seeking not any goal, attaineth all things; he doth not interfere in the affairs of his body, and so that body acteth without friction. It is because he meddleth not with personal aims that these come to pass with simplicity.</t>
+  </si>
+  <si>
+    <t>THE NATURE OF PEACE</t>
+  </si>
+  <si>
+    <t>Admire thou the High Way of Water! Is not Water the soul of the life of things, whereby they change? Yet it seeketh its level, and abideth content in obscurity. So also it resembleth the Tao, in this Way thereof!
+The virtue of a house is to be well-placed; of the mind, to be at easein silence as of Space; of societies, to be well-disposed; of governments, to maintain quietude; of work, to be skillfully performed; and of all motion, to be made at the right time.
+Also it is the virtue of a man to abide in his place without discontent; thus offendeth he no man.</t>
+  </si>
+  <si>
+    <t>THE WAY OF RETICENCE</t>
+  </si>
+  <si>
+    <t>Fill not a vessel, lest it spill in carrying. Meddle not with a sharpened point by feeling it constantly, or it will soon become blunted.
+Gold and jade endanger the house of their possessor. Wealth and honors lead to arrogance and envy, and bring ruin. Is thy way famous and thy name becoming distinguished? Withdraw, thy work once done, into obscurity; this is the way of Heaven.</t>
+  </si>
+  <si>
+    <t>THINGS ATTAINABLE</t>
+  </si>
+  <si>
+    <t>When soul and body are in the bond of love, they can be kept together. By concentration on the breath it is brought to perfect elasticity, and one becomes as a babe. By purifying oneself from Samadhi one becomes whole
+In his dealing with individuals and with society, let him move without lust of result. In the management of his breath, let him be like the mother-bird. Let his intelligence comprehend every quarter; but let his knowledge cease.
+Here is the Mystery of Virtue. It createth all and nourisheth all; yet it doth not adhere to them; it operateth all, but knoweth not of it, nor proclaimeth it; it directeth all, but without conscious control.</t>
+  </si>
+  <si>
+    <t>THE VALUE OF THE UNEXPRESSED</t>
+  </si>
+  <si>
+    <t>The thirty spokes join in their nave, that is one; yet the wheel dependeth for use upon the hollow place for the axle. Clay is shapen to make vessels; but the contained space is what is useful. Matter is therefore of use only to mark the limits of the space which is the thing of real value.</t>
+  </si>
+  <si>
+    <t>THE WITHDRAWAL FROM THE EXTERNAL</t>
+  </si>
+  <si>
+    <t>The five colors film over Sight; The five sounds make Hearing dull; The five flavours conceal Taste; occupation with motion and action bedevil Mind; even so the esteem of rare things begetteth covetousness and disorder.
+The wise man seeketh therefore to content the actual needs of the people; not to excite them by the sight of luxuries. He banneth these, and concentrateth on those.</t>
+  </si>
+  <si>
+    <t>THE CONTEMPT FOR CIRCUMSTANCE</t>
+  </si>
+  <si>
+    <t>Favor and disgrace are equally to be shunned; honour and calamity to be alike regarded as adhering to the personality.
+What is this which is written concerning favour and disgrace? Disgrace is the fall from favour. He then that hath favour hath fear, and its loss begetteth fear yet greater of a further fall. What is this which is written concerning honour and calamity? It is this attachment to the body which maketh calamity possible; for were one bodiless, what evil could befall him?
+Therefore let him that regardeth himself rightly administer also a kingdom; and let him govern it who loveth it as another man loveth himself.</t>
+  </si>
+  <si>
+    <t>THE SHEWING-FORTH OF THE MYSTERY</t>
+  </si>
+  <si>
+    <t>We look at it, and see it not; though it is Omnipresent; and we name it We listen for it, and hear it not, though it is We feel for it, and touch it not, These three Virtues hath it, yet we cannot describe it as consisting of them; but, mingling them aright, we apprehend the One.
+It moveth all
+It is the Form of That which is beyond Form; it is the Image of the Invisible; it is Change, and Without Limit.
+We confront it, and see not its Face; we pursue it, and its Back is but apply the Tao as in old Time to the work of the present; know it as it was known in the Beginning; follow fervently the Thread of the Tao.</t>
+  </si>
+  <si>
+    <t>THE APPEARANCE OF THE TRUE NATURE</t>
+  </si>
+  <si>
+    <t>The adepts of past ages were subtle and keen to apprehend this Mystery, Since then they were not known, let me declare their nature.
+To all seeming, they were fearful as men that cross a torrent in winter flood; they were hesitating like a man in apprehension of them thatare about him; they were full of awe like a guest in a great house; theywere ready to disappear like ice in thaw; they were unassuming like unworked wood; they were empty as a valley; and dull as the waters of a marsh.
+Who can clear muddy water? stillness will accomplish this. Who can obtain rest? Let motion continue equably, and it will itself be peace.
+The adepts of the Tao, conserving its way, seek not to be actively self-conscious. By their emptiness of Self they have no need to show their youth and perfection; to appear old and imperfect is their privilege.</t>
+  </si>
+  <si>
+    <t>THE WITHDRAWAL TO THE ROOT</t>
+  </si>
+  <si>
+    <t>Emptiness must be perfect, and Silence made absolute with tireless All things pass through the period of action; then they return They grow, bud, blossom and fruit; then they return to the This return to the root is this state which we name Silence ;and this Silence is Witness of their Fulfilment.
+To know it is the part of intelligence; To know it bringeth understanding and peace; and these lead to the identification of This identification maketh man a king; and That godhood beareth fruit in the Then the man, the Tao permeating him, endureth; and his bodily principles are in harmony, proof against decay, until the hour of his Change.</t>
+  </si>
+  <si>
+    <t>THE PURITY OF THE CURRENT</t>
+  </si>
+  <si>
+    <t>In the Age of Gold, the people were not conscious of their rulers; in the Age of Silver, they loved them, with songs; in the Age of Brass, they As the rulers lost confidence, so also did the people lose confidence in them.
+How hesitating did they seem, the Lords of the Age of Gold, speaking with Thus they accomplished all things with success; and the people deemed their well-being to be the natural course of events.</t>
+  </si>
+  <si>
+    <t>THE DECAY OF MANNERS</t>
+  </si>
+  <si>
+    <t>When men abandoned the Way of the Tao, benevolence and justice became Then also was need of wisdom and cunning, and all fell into When harmony ceased to prevail in the six spheres it was needful When the kingdoms and races became confused, loyal ministers had to appear.</t>
+  </si>
+  <si>
+    <t>RETURNING TO THE PURITY OF THE CURRENT</t>
+  </si>
+  <si>
+    <t>If we forgot our statesmanship and our wisdom, it would be an hundred If we forgot our benevolence and our If we forget our machines and our business, there would be no knavery.
+These new methods despised the olden Way, inventing fine names to But simplicity in the doing of the will of every man would put an end to vain ambitions and desires.</t>
+  </si>
+  <si>
+    <t>THE WITHDRAWAL FROM THE COMMON WAY</t>
+  </si>
+  <si>
+    <t>The smallest difference in words, such as 'yes' and 'yea', can make endless controversy for the Fearful indeed is death, since all men fear it; but the abyss of questionings, shoreless and bottomless, is worse!
+Consider the profane man, how he preeneth, as if at feast, or gazing upon
+But as for me, I am as one who yawneth, without any
+I appear sad
+The profane man hath his need filled,
+My mind is as
+The profane man looketh
+They seem
+I seem to be
+The profane have each one his definite course of action; I alone appear Yea, thus I differ from all other men: but my jewel is the All-Mother!</t>
+  </si>
+  <si>
+    <t>THE INFINITE WOMB</t>
   </si>
 </sst>
 </file>
@@ -432,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E191528-AB0E-4B22-B3B4-75CCF45DF296}">
-  <dimension ref="B1:D13"/>
+  <dimension ref="B1:D104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -451,43 +586,269 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="2">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="D5" s="1" t="s">
+    <row r="6" spans="2:4" ht="304.5" x14ac:dyDescent="0.35">
+      <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="2">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B9" s="2">
         <v>2</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="145" x14ac:dyDescent="0.35">
-      <c r="D9" s="1" t="s">
+    <row r="11" spans="2:4" ht="145" x14ac:dyDescent="0.35">
+      <c r="D11" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="2">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B14" s="2">
         <v>3</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="D13" s="1" t="s">
+    <row r="16" spans="2:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="D16" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="D21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B24" s="2">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="D26" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B29" s="2">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D31" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B34" s="2">
+        <v>7</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="D36" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B39" s="2">
+        <v>8</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="D41" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B44" s="2">
+        <v>9</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="D46" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B49" s="2">
+        <v>10</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="D51" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B54" s="2">
+        <v>11</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="D56" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B59" s="2">
+        <v>12</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="D61" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B64" s="2">
+        <v>13</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="D66" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B69" s="2">
+        <v>14</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" ht="116" x14ac:dyDescent="0.35">
+      <c r="D71" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B74" s="2">
+        <v>15</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" ht="116" x14ac:dyDescent="0.35">
+      <c r="D76" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B79" s="2">
+        <v>16</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="D81" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B84" s="2">
+        <v>17</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="D86" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B89" s="2">
+        <v>18</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="D91" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B94" s="2">
+        <v>19</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="D96" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B99" s="2">
+        <v>20</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="D101" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D104" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
